--- a/storage/questions_import_sample.xlsx
+++ b/storage/questions_import_sample.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Parent Question ID</t>
+  </si>
   <si>
     <t xml:space="preserve">Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context</t>
   </si>
   <si>
     <t xml:space="preserve">Answer</t>
@@ -137,12 +143,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,54 +228,167 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/storage/questions_import_sample.xlsx
+++ b/storage/questions_import_sample.xlsx
@@ -20,42 +20,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Parent Question ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">UID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groups</t>
   </si>
   <si>
     <t xml:space="preserve">Question</t>
   </si>
   <si>
-    <t xml:space="preserve">Context</t>
+    <t xml:space="preserve">Option 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct Ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marks</t>
   </si>
   <si>
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
-    <t xml:space="preserve">Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct Ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marks</t>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In budgeting, what does the “50-30-20 rule” suggest?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% Save, 30% Spend, 20% Invest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% Needs, 30% Wants, 20% Savings/Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% Wants, 30% Savings, 20% Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% Emergency Fund, 30% Lifestyle, 20% Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 50-30-20 rule divides income into 50% for essential needs (rent, food, bills), 30% for wants (entertainment, shopping), and 20% for savings/investments (emergency fund, retirement, debt repayment).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is a liability on a company’s balance sheet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash in hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retained Earnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liabilities are what the company owes (like loans, creditors). Assets include cash and inventory, while retained earnings fall under equity. Hence, a bank loan is a liability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In web development, which HTTP status code means “Resource Not Found”?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 → Success | 301 → Moved Permanently (redirect) | 404 → Resource Not Found (broken link or missing page) | 500 → Internal Server Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In recent years, India has witnessed a rapid shift towards digital payments. The launch of the Unified Payments Interface (UPI) has made instant money transfers possible using just a mobile number or a QR code. Digital wallets like Paytm, PhonePe, and Google Pay have gained popularity, especially after the 2016 demonetization, which encouraged cashless transactions. Today, even small shopkeepers and street vendors accept UPI payments, making India one of the leaders in digital payment adoption worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which technology is mainly responsible for India’s boom in cashless transactions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptocurrency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unified Payments Interface (UPI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPI simplified instant transfers, fueling the digital boom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did digital wallets see a surge in usage after 2016?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because banks were closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to demonetization of old currency notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBI stopped issuing cheques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign investment in tech companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of cash pushed people to adopt digital payments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is one major benefit of UPI for small shopkeepers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helps in stock management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows accepting instant payments without costly machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides interest on transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces taxes automatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPI only needs a phone and QR code, no expensive POS machine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change refers to long-term shifts in global temperatures and weather patterns, largely caused by human activities such as burning fossil fuels, deforestation, and industrial emissions. The Earth’s average temperature has been rising, leading to melting glaciers, rising sea levels, and extreme weather events. Governments and organizations worldwide are working on solutions such as renewable energy, afforestation, and reducing carbon emissions to combat the negative effects of climate change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the primary cause of modern climate change?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural disasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human activities like burning fossil fuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes in the moon’s orbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human actions increase greenhouse gases, causing global warming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is a visible impact of climate change?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slower internet speeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rising sea levels due to melting glaciers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased space exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More fertile deserts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glacial melting raises sea levels, endangering coastal areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which solution is commonly suggested to reduce climate change?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of renewable energy sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More deforestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building more factories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasing plastic use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar, wind, and hydro reduce carbon emissions.</t>
   </si>
 </sst>
 </file>
@@ -65,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,13 +254,44 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF5B277D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF5B277D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +300,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,17 +351,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -186,7 +438,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -201,7 +453,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -221,7 +473,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF5B277D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -339,56 +591,352 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="30.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="17.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="30.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="8" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="XFC1" s="0"/>
+      <c r="XFD1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
